--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tfrc</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.9502464867192</v>
+        <v>14.52107966666667</v>
       </c>
       <c r="H2">
-        <v>8.9502464867192</v>
+        <v>43.563239</v>
       </c>
       <c r="I2">
-        <v>0.1849146167542537</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="J2">
-        <v>0.1849146167542537</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.059005162741</v>
+        <v>27.646565</v>
       </c>
       <c r="N2">
-        <v>12.059005162741</v>
+        <v>82.939695</v>
       </c>
       <c r="O2">
-        <v>0.269735085987504</v>
+        <v>0.4490272892980421</v>
       </c>
       <c r="P2">
-        <v>0.269735085987504</v>
+        <v>0.4490272892980421</v>
       </c>
       <c r="Q2">
-        <v>107.9310685911513</v>
+        <v>401.4579728746783</v>
       </c>
       <c r="R2">
-        <v>107.9310685911513</v>
+        <v>3613.121755872105</v>
       </c>
       <c r="S2">
-        <v>0.04987796005055497</v>
+        <v>0.1004920768065511</v>
       </c>
       <c r="T2">
-        <v>0.04987796005055497</v>
+        <v>0.1004920768065511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.9502464867192</v>
+        <v>14.52107966666667</v>
       </c>
       <c r="H3">
-        <v>8.9502464867192</v>
+        <v>43.563239</v>
       </c>
       <c r="I3">
-        <v>0.1849146167542537</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="J3">
-        <v>0.1849146167542537</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.73185295086892</v>
+        <v>3.745931333333334</v>
       </c>
       <c r="N3">
-        <v>3.73185295086892</v>
+        <v>11.237794</v>
       </c>
       <c r="O3">
-        <v>0.08347385733820738</v>
+        <v>0.06084030303595646</v>
       </c>
       <c r="P3">
-        <v>0.08347385733820738</v>
+        <v>0.06084030303595646</v>
       </c>
       <c r="Q3">
-        <v>33.40100376246723</v>
+        <v>54.39496731719623</v>
       </c>
       <c r="R3">
-        <v>33.40100376246723</v>
+        <v>489.5547058547661</v>
       </c>
       <c r="S3">
-        <v>0.01543553633869387</v>
+        <v>0.0136160285829867</v>
       </c>
       <c r="T3">
-        <v>0.01543553633869387</v>
+        <v>0.0136160285829867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>8.9502464867192</v>
+        <v>14.52107966666667</v>
       </c>
       <c r="H4">
-        <v>8.9502464867192</v>
+        <v>43.563239</v>
       </c>
       <c r="I4">
-        <v>0.1849146167542537</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="J4">
-        <v>0.1849146167542537</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.0125219091133</v>
+        <v>15.12837333333333</v>
       </c>
       <c r="N4">
-        <v>14.0125219091133</v>
+        <v>45.38512</v>
       </c>
       <c r="O4">
-        <v>0.3134312284511324</v>
+        <v>0.2457105419554094</v>
       </c>
       <c r="P4">
-        <v>0.3134312284511324</v>
+        <v>0.2457105419554094</v>
       </c>
       <c r="Q4">
-        <v>125.4155249871171</v>
+        <v>219.6803144004089</v>
       </c>
       <c r="R4">
-        <v>125.4155249871171</v>
+        <v>1977.12282960368</v>
       </c>
       <c r="S4">
-        <v>0.05795801548785608</v>
+        <v>0.0549898931375928</v>
       </c>
       <c r="T4">
-        <v>0.05795801548785608</v>
+        <v>0.0549898931375928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>8.9502464867192</v>
+        <v>14.52107966666667</v>
       </c>
       <c r="H5">
-        <v>8.9502464867192</v>
+        <v>43.563239</v>
       </c>
       <c r="I5">
-        <v>0.1849146167542537</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="J5">
-        <v>0.1849146167542537</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.9034667658316</v>
+        <v>15.04902966666666</v>
       </c>
       <c r="N5">
-        <v>14.9034667658316</v>
+        <v>45.14708899999999</v>
       </c>
       <c r="O5">
-        <v>0.3333598282231563</v>
+        <v>0.2444218657105919</v>
       </c>
       <c r="P5">
-        <v>0.3333598282231563</v>
+        <v>0.2444218657105919</v>
       </c>
       <c r="Q5">
-        <v>133.3897010608206</v>
+        <v>218.5281586956968</v>
       </c>
       <c r="R5">
-        <v>133.3897010608206</v>
+        <v>1966.753428261271</v>
       </c>
       <c r="S5">
-        <v>0.0616431048771488</v>
+        <v>0.05470148805563125</v>
       </c>
       <c r="T5">
-        <v>0.0616431048771488</v>
+        <v>0.05470148805563125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.5724489795571</v>
+        <v>9.234235</v>
       </c>
       <c r="H6">
-        <v>38.5724489795571</v>
+        <v>27.702705</v>
       </c>
       <c r="I6">
-        <v>0.7969176749390657</v>
+        <v>0.1423184156704627</v>
       </c>
       <c r="J6">
-        <v>0.7969176749390657</v>
+        <v>0.1423184156704627</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.059005162741</v>
+        <v>27.646565</v>
       </c>
       <c r="N6">
-        <v>12.059005162741</v>
+        <v>82.939695</v>
       </c>
       <c r="O6">
-        <v>0.269735085987504</v>
+        <v>0.4490272892980421</v>
       </c>
       <c r="P6">
-        <v>0.269735085987504</v>
+        <v>0.4490272892980421</v>
       </c>
       <c r="Q6">
-        <v>465.1453613840429</v>
+        <v>255.294878152775</v>
       </c>
       <c r="R6">
-        <v>465.1453613840429</v>
+        <v>2297.653903374975</v>
       </c>
       <c r="S6">
-        <v>0.2149566575746506</v>
+        <v>0.06390485240569985</v>
       </c>
       <c r="T6">
-        <v>0.2149566575746506</v>
+        <v>0.06390485240569985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.5724489795571</v>
+        <v>9.234235</v>
       </c>
       <c r="H7">
-        <v>38.5724489795571</v>
+        <v>27.702705</v>
       </c>
       <c r="I7">
-        <v>0.7969176749390657</v>
+        <v>0.1423184156704627</v>
       </c>
       <c r="J7">
-        <v>0.7969176749390657</v>
+        <v>0.1423184156704627</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.73185295086892</v>
+        <v>3.745931333333334</v>
       </c>
       <c r="N7">
-        <v>3.73185295086892</v>
+        <v>11.237794</v>
       </c>
       <c r="O7">
-        <v>0.08347385733820738</v>
+        <v>0.06084030303595646</v>
       </c>
       <c r="P7">
-        <v>0.08347385733820738</v>
+        <v>0.06084030303595646</v>
       </c>
       <c r="Q7">
-        <v>143.946707546601</v>
+        <v>34.59081022586334</v>
       </c>
       <c r="R7">
-        <v>143.946707546601</v>
+        <v>311.31729203277</v>
       </c>
       <c r="S7">
-        <v>0.06652179230815949</v>
+        <v>0.008658695536988163</v>
       </c>
       <c r="T7">
-        <v>0.06652179230815949</v>
+        <v>0.008658695536988163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.5724489795571</v>
+        <v>9.234235</v>
       </c>
       <c r="H8">
-        <v>38.5724489795571</v>
+        <v>27.702705</v>
       </c>
       <c r="I8">
-        <v>0.7969176749390657</v>
+        <v>0.1423184156704627</v>
       </c>
       <c r="J8">
-        <v>0.7969176749390657</v>
+        <v>0.1423184156704627</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.0125219091133</v>
+        <v>15.12837333333333</v>
       </c>
       <c r="N8">
-        <v>14.0125219091133</v>
+        <v>45.38512</v>
       </c>
       <c r="O8">
-        <v>0.3134312284511324</v>
+        <v>0.2457105419554094</v>
       </c>
       <c r="P8">
-        <v>0.3134312284511324</v>
+        <v>0.2457105419554094</v>
       </c>
       <c r="Q8">
-        <v>540.4972864141988</v>
+        <v>139.6989545277333</v>
       </c>
       <c r="R8">
-        <v>540.4972864141988</v>
+        <v>1257.2905907496</v>
       </c>
       <c r="S8">
-        <v>0.2497788858305716</v>
+        <v>0.03496913504462461</v>
       </c>
       <c r="T8">
-        <v>0.2497788858305716</v>
+        <v>0.03496913504462461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.5724489795571</v>
+        <v>9.234235</v>
       </c>
       <c r="H9">
-        <v>38.5724489795571</v>
+        <v>27.702705</v>
       </c>
       <c r="I9">
-        <v>0.7969176749390657</v>
+        <v>0.1423184156704627</v>
       </c>
       <c r="J9">
-        <v>0.7969176749390657</v>
+        <v>0.1423184156704627</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.9034667658316</v>
+        <v>15.04902966666666</v>
       </c>
       <c r="N9">
-        <v>14.9034667658316</v>
+        <v>45.14708899999999</v>
       </c>
       <c r="O9">
-        <v>0.3333598282231563</v>
+        <v>0.2444218657105919</v>
       </c>
       <c r="P9">
-        <v>0.3333598282231563</v>
+        <v>0.2444218657105919</v>
       </c>
       <c r="Q9">
-        <v>574.8632114435643</v>
+        <v>138.9662764639716</v>
       </c>
       <c r="R9">
-        <v>574.8632114435643</v>
+        <v>1250.696488175745</v>
       </c>
       <c r="S9">
-        <v>0.2656603392256841</v>
+        <v>0.03478573268315003</v>
       </c>
       <c r="T9">
-        <v>0.2656603392256841</v>
+        <v>0.03478573268315003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.879354321998809</v>
+        <v>40.17359466666667</v>
       </c>
       <c r="H10">
-        <v>0.879354321998809</v>
+        <v>120.520784</v>
       </c>
       <c r="I10">
-        <v>0.0181677083066805</v>
+        <v>0.6191571196474152</v>
       </c>
       <c r="J10">
-        <v>0.0181677083066805</v>
+        <v>0.6191571196474152</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.059005162741</v>
+        <v>27.646565</v>
       </c>
       <c r="N10">
-        <v>12.059005162741</v>
+        <v>82.939695</v>
       </c>
       <c r="O10">
-        <v>0.269735085987504</v>
+        <v>0.4490272892980421</v>
       </c>
       <c r="P10">
-        <v>0.269735085987504</v>
+        <v>0.4490272892980421</v>
       </c>
       <c r="Q10">
-        <v>10.60413830886225</v>
+        <v>1110.661896235653</v>
       </c>
       <c r="R10">
-        <v>10.60413830886225</v>
+        <v>9995.95706612088</v>
       </c>
       <c r="S10">
-        <v>0.004900468362298355</v>
+        <v>0.2780184430848624</v>
       </c>
       <c r="T10">
-        <v>0.004900468362298355</v>
+        <v>0.2780184430848624</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.879354321998809</v>
+        <v>40.17359466666667</v>
       </c>
       <c r="H11">
-        <v>0.879354321998809</v>
+        <v>120.520784</v>
       </c>
       <c r="I11">
-        <v>0.0181677083066805</v>
+        <v>0.6191571196474152</v>
       </c>
       <c r="J11">
-        <v>0.0181677083066805</v>
+        <v>0.6191571196474152</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.73185295086892</v>
+        <v>3.745931333333334</v>
       </c>
       <c r="N11">
-        <v>3.73185295086892</v>
+        <v>11.237794</v>
       </c>
       <c r="O11">
-        <v>0.08347385733820738</v>
+        <v>0.06084030303595646</v>
       </c>
       <c r="P11">
-        <v>0.08347385733820738</v>
+        <v>0.06084030303595646</v>
       </c>
       <c r="Q11">
-        <v>3.281621021410594</v>
+        <v>150.4875270344995</v>
       </c>
       <c r="R11">
-        <v>3.281621021410594</v>
+        <v>1354.387743310496</v>
       </c>
       <c r="S11">
-        <v>0.001516528691354013</v>
+        <v>0.03766970678621869</v>
       </c>
       <c r="T11">
-        <v>0.001516528691354013</v>
+        <v>0.03766970678621869</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.879354321998809</v>
+        <v>40.17359466666667</v>
       </c>
       <c r="H12">
-        <v>0.879354321998809</v>
+        <v>120.520784</v>
       </c>
       <c r="I12">
-        <v>0.0181677083066805</v>
+        <v>0.6191571196474152</v>
       </c>
       <c r="J12">
-        <v>0.0181677083066805</v>
+        <v>0.6191571196474152</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.0125219091133</v>
+        <v>15.12837333333333</v>
       </c>
       <c r="N12">
-        <v>14.0125219091133</v>
+        <v>45.38512</v>
       </c>
       <c r="O12">
-        <v>0.3134312284511324</v>
+        <v>0.2457105419554094</v>
       </c>
       <c r="P12">
-        <v>0.3134312284511324</v>
+        <v>0.2457105419554094</v>
       </c>
       <c r="Q12">
-        <v>12.32197170288178</v>
+        <v>607.7611382593423</v>
       </c>
       <c r="R12">
-        <v>12.32197170288178</v>
+        <v>5469.85024433408</v>
       </c>
       <c r="S12">
-        <v>0.005694327132704712</v>
+        <v>0.1521334314241166</v>
       </c>
       <c r="T12">
-        <v>0.005694327132704712</v>
+        <v>0.1521334314241166</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>40.17359466666667</v>
+      </c>
+      <c r="H13">
+        <v>120.520784</v>
+      </c>
+      <c r="I13">
+        <v>0.6191571196474152</v>
+      </c>
+      <c r="J13">
+        <v>0.6191571196474152</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.04902966666666</v>
+      </c>
+      <c r="N13">
+        <v>45.14708899999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2444218657105919</v>
+      </c>
+      <c r="P13">
+        <v>0.2444218657105919</v>
+      </c>
+      <c r="Q13">
+        <v>604.5736179553084</v>
+      </c>
+      <c r="R13">
+        <v>5441.162561597775</v>
+      </c>
+      <c r="S13">
+        <v>0.1513355383522174</v>
+      </c>
+      <c r="T13">
+        <v>0.1513355383522174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9554203333333334</v>
+      </c>
+      <c r="H14">
+        <v>2.866261</v>
+      </c>
+      <c r="I14">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="J14">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>27.646565</v>
+      </c>
+      <c r="N14">
+        <v>82.939695</v>
+      </c>
+      <c r="O14">
+        <v>0.4490272892980421</v>
+      </c>
+      <c r="P14">
+        <v>0.4490272892980421</v>
+      </c>
+      <c r="Q14">
+        <v>26.41409034782167</v>
+      </c>
+      <c r="R14">
+        <v>237.726813130395</v>
+      </c>
+      <c r="S14">
+        <v>0.006611917000928742</v>
+      </c>
+      <c r="T14">
+        <v>0.006611917000928742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9554203333333334</v>
+      </c>
+      <c r="H15">
+        <v>2.866261</v>
+      </c>
+      <c r="I15">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="J15">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.745931333333334</v>
+      </c>
+      <c r="N15">
+        <v>11.237794</v>
+      </c>
+      <c r="O15">
+        <v>0.06084030303595646</v>
+      </c>
+      <c r="P15">
+        <v>0.06084030303595646</v>
+      </c>
+      <c r="Q15">
+        <v>3.578938963137112</v>
+      </c>
+      <c r="R15">
+        <v>32.210450668234</v>
+      </c>
+      <c r="S15">
+        <v>0.0008958721297628961</v>
+      </c>
+      <c r="T15">
+        <v>0.0008958721297628961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.879354321998809</v>
-      </c>
-      <c r="H13">
-        <v>0.879354321998809</v>
-      </c>
-      <c r="I13">
-        <v>0.0181677083066805</v>
-      </c>
-      <c r="J13">
-        <v>0.0181677083066805</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.9034667658316</v>
-      </c>
-      <c r="N13">
-        <v>14.9034667658316</v>
-      </c>
-      <c r="O13">
-        <v>0.3333598282231563</v>
-      </c>
-      <c r="P13">
-        <v>0.3333598282231563</v>
-      </c>
-      <c r="Q13">
-        <v>13.10542791329963</v>
-      </c>
-      <c r="R13">
-        <v>13.10542791329963</v>
-      </c>
-      <c r="S13">
-        <v>0.006056384120323422</v>
-      </c>
-      <c r="T13">
-        <v>0.006056384120323422</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9554203333333334</v>
+      </c>
+      <c r="H16">
+        <v>2.866261</v>
+      </c>
+      <c r="I16">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="J16">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.12837333333333</v>
+      </c>
+      <c r="N16">
+        <v>45.38512</v>
+      </c>
+      <c r="O16">
+        <v>0.2457105419554094</v>
+      </c>
+      <c r="P16">
+        <v>0.2457105419554094</v>
+      </c>
+      <c r="Q16">
+        <v>14.45395549292445</v>
+      </c>
+      <c r="R16">
+        <v>130.08559943632</v>
+      </c>
+      <c r="S16">
+        <v>0.003618082349075327</v>
+      </c>
+      <c r="T16">
+        <v>0.003618082349075326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9554203333333334</v>
+      </c>
+      <c r="H17">
+        <v>2.866261</v>
+      </c>
+      <c r="I17">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="J17">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.04902966666666</v>
+      </c>
+      <c r="N17">
+        <v>45.14708899999999</v>
+      </c>
+      <c r="O17">
+        <v>0.2444218657105919</v>
+      </c>
+      <c r="P17">
+        <v>0.2444218657105919</v>
+      </c>
+      <c r="Q17">
+        <v>14.37814894046989</v>
+      </c>
+      <c r="R17">
+        <v>129.403340464229</v>
+      </c>
+      <c r="S17">
+        <v>0.003599106619593223</v>
+      </c>
+      <c r="T17">
+        <v>0.003599106619593223</v>
       </c>
     </row>
   </sheetData>
